--- a/public/template_invitation.xlsx
+++ b/public/template_invitation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/oombp-021/Documents/playground/inspirafest-event/public/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4E418C2B-FF01-4B79-BB7A-21966A706106}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{396ACD54-09C4-CF4C-A8BA-1DF6F29A0800}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E71F92B5-F3CE-402A-B822-76D956022D07}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="23260" windowHeight="12580" xr2:uid="{E71F92B5-F3CE-402A-B822-76D956022D07}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>no</t>
   </si>
@@ -42,29 +42,34 @@
     <t>email</t>
   </si>
   <si>
-    <t>ticket_type</t>
-  </si>
-  <si>
-    <t>MRV</t>
-  </si>
-  <si>
-    <t>Wafi</t>
-  </si>
-  <si>
-    <t>hibatulwafi.mri@gmail.com</t>
-  </si>
-  <si>
-    <t>vip</t>
+    <t>MR</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>+6289123456789</t>
+  </si>
+  <si>
+    <t>test@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -87,14 +92,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -111,9 +120,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -151,7 +160,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -257,7 +266,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -399,7 +408,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -407,23 +416,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D09732DD-CCEF-4361-9420-C0EA79F6B299}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -439,36 +447,25 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="1">
-        <v>625863046869</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="E2" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="F2" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" promptTitle="choose one" sqref="F2:F50" xr:uid="{995D04F5-6AF9-4487-BBDE-06A60B65ADE9}">
-      <formula1>"vip,onsite,online"</formula1>
-    </dataValidation>
-  </dataValidations>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1" xr:uid="{B6DD9AD4-C08D-43B6-A2E9-CEB614AB852A}"/>
   </hyperlinks>
